--- a/mudgame.xlsx
+++ b/mudgame.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gminfos" sheetId="1" r:id="rId1"/>
     <sheet name="mainhome" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="bugs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>gm_qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,78 @@
   </si>
   <si>
     <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级工虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步进化的职虫，几乎所有的工作都做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级兵虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级兵虫，负责保卫虫巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classnote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,12 +732,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="40.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mudgame.xlsx
+++ b/mudgame.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="gminfos" sheetId="1" r:id="rId1"/>
     <sheet name="mainhome" sheetId="2" r:id="rId2"/>
     <sheet name="bugs" sheetId="3" r:id="rId3"/>
+    <sheet name="depot" sheetId="4" r:id="rId4"/>
+    <sheet name="mapa" sheetId="5" r:id="rId5"/>
+    <sheet name="tiles" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="85">
   <si>
     <t>gm_qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初级工虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初步进化的职虫，几乎所有的工作都做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +194,163 @@
   </si>
   <si>
     <t>兵虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l002</t>
+  </si>
+  <si>
+    <t>s002</t>
+  </si>
+  <si>
+    <t>l003</t>
+  </si>
+  <si>
+    <t>s003</t>
+  </si>
+  <si>
+    <t>l004</t>
+  </si>
+  <si>
+    <t>s004</t>
+  </si>
+  <si>
+    <t>l005</t>
+  </si>
+  <si>
+    <t>初步进化的职虫，几乎所有的工作都做.初步进化的职虫，几乎所有的工作都做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级工虫1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级工虫2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级工虫3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级工虫4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级工虫5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级兵虫1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级兵虫2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级兵虫3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化初级基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化次级基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫩叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明菌蒲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚜虫卵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菌蒲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要钥匙才能打开，未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,10 +888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,7 +920,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -775,7 +931,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -790,10 +946,10 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -801,29 +957,1769 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
-        <v>41</v>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>230</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>260</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>290</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>45000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>233</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>45000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>233</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/mudgame.xlsx
+++ b/mudgame.xlsx
@@ -12,14 +12,14 @@
     <sheet name="bugs" sheetId="3" r:id="rId3"/>
     <sheet name="depot" sheetId="4" r:id="rId4"/>
     <sheet name="mapa" sheetId="5" r:id="rId5"/>
-    <sheet name="tiles" sheetId="6" r:id="rId6"/>
+    <sheet name="titleconfig" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="154">
   <si>
     <t>gm_qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,260 @@
   <si>
     <t>t1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通虫食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级以下虫类食用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1002</t>
+  </si>
+  <si>
+    <t>t1003</t>
+  </si>
+  <si>
+    <t>t1004</t>
+  </si>
+  <si>
+    <t>t1005</t>
+  </si>
+  <si>
+    <t>t1006</t>
+  </si>
+  <si>
+    <t>t1007</t>
+  </si>
+  <si>
+    <t>t1008</t>
+  </si>
+  <si>
+    <t>t1009</t>
+  </si>
+  <si>
+    <t>t1010</t>
+  </si>
+  <si>
+    <t>t1011</t>
+  </si>
+  <si>
+    <t>t1012</t>
+  </si>
+  <si>
+    <t>t1013</t>
+  </si>
+  <si>
+    <t>t1014</t>
+  </si>
+  <si>
+    <t>aphid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚜虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可供牧养的昆虫，为它提供保护，蚜虫则负责产出蜜露一样的高级食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能通过和建造，但一些特殊任务需要水源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍物，但可以探索，或许有发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小块空地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提供树叶，树叶可以种植菌蒲，不能建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cave </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知的探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫卵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以孵化特殊虫类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以种植，需要树叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibiotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗生素菌类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以种植，随身携带，防止虫群疾病暴发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zymad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致病菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虫群是极大的威胁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核辐射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不看靠近，但是核虫生长的必要条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gene </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以升级对应虫类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要消灭的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f32_32</t>
+  </si>
+  <si>
+    <t>f34_34</t>
+  </si>
+  <si>
+    <t>f35_35</t>
+  </si>
+  <si>
+    <t>slice10_10</t>
+  </si>
+  <si>
+    <t>slice28_28</t>
+  </si>
+  <si>
+    <t>slice29_29</t>
+  </si>
+  <si>
+    <t>slice63_63</t>
+  </si>
+  <si>
+    <t>slice93_93</t>
+  </si>
+  <si>
+    <t>slice53_53</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1407,8 +1661,8 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>81</v>
       </c>
       <c r="D2">
         <v>45000</v>
@@ -1427,8 +1681,8 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>85</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -1447,8 +1701,8 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>101</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1467,8 +1721,8 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>9</v>
+      <c r="C5" t="s">
+        <v>104</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1487,8 +1741,8 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>107</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -1507,8 +1761,8 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>110</v>
       </c>
       <c r="D7">
         <v>5000</v>
@@ -1527,8 +1781,8 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>113</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1547,8 +1801,8 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
       <c r="D9">
         <v>233</v>
@@ -1567,8 +1821,8 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>121</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1587,8 +1841,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>124</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1607,8 +1861,8 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>127</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1627,8 +1881,8 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>130</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1647,8 +1901,8 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" t="s">
+        <v>133</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1667,8 +1921,8 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>7</v>
+      <c r="C15" t="s">
+        <v>137</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1687,8 +1941,8 @@
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>141</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1707,8 +1961,8 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="C17" t="s">
+        <v>81</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -1727,8 +1981,8 @@
       <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>85</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1747,8 +2001,8 @@
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>101</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1767,8 +2021,8 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>6</v>
+      <c r="C20" t="s">
+        <v>104</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1787,8 +2041,8 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
-        <v>9</v>
+      <c r="C21" t="s">
+        <v>107</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -1807,8 +2061,8 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>110</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -1827,8 +2081,8 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23">
-        <v>9</v>
+      <c r="C23" t="s">
+        <v>113</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1847,8 +2101,8 @@
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>5</v>
+      <c r="C24" t="s">
+        <v>118</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -1867,8 +2121,8 @@
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="s">
+        <v>121</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -1887,8 +2141,8 @@
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" t="s">
+        <v>124</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -1907,8 +2161,8 @@
       <c r="B27">
         <v>7</v>
       </c>
-      <c r="C27">
-        <v>9</v>
+      <c r="C27" t="s">
+        <v>127</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -1927,8 +2181,8 @@
       <c r="B28">
         <v>8</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>130</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1947,8 +2201,8 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>133</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -1967,8 +2221,8 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>3</v>
+      <c r="C30" t="s">
+        <v>137</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -1987,8 +2241,8 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>141</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -2007,8 +2261,8 @@
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>81</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -2027,8 +2281,8 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>3</v>
+      <c r="C33" t="s">
+        <v>85</v>
       </c>
       <c r="D33">
         <v>15</v>
@@ -2047,8 +2301,8 @@
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="s">
+        <v>101</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -2067,8 +2321,8 @@
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" t="s">
+        <v>104</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -2087,8 +2341,8 @@
       <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>107</v>
       </c>
       <c r="D36">
         <v>15</v>
@@ -2107,8 +2361,8 @@
       <c r="B37">
         <v>8</v>
       </c>
-      <c r="C37">
-        <v>5</v>
+      <c r="C37" t="s">
+        <v>110</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -2127,8 +2381,8 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="C38" t="s">
+        <v>113</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -2147,8 +2401,8 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="C39" t="s">
+        <v>118</v>
       </c>
       <c r="D39">
         <v>15</v>
@@ -2167,8 +2421,8 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C40" t="s">
+        <v>121</v>
       </c>
       <c r="D40">
         <v>15</v>
@@ -2187,8 +2441,8 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41">
-        <v>5</v>
+      <c r="C41" t="s">
+        <v>124</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -2207,8 +2461,8 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42">
-        <v>0</v>
+      <c r="C42" t="s">
+        <v>127</v>
       </c>
       <c r="D42">
         <v>15</v>
@@ -2227,8 +2481,8 @@
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43">
-        <v>5</v>
+      <c r="C43" t="s">
+        <v>130</v>
       </c>
       <c r="D43">
         <v>15</v>
@@ -2247,8 +2501,8 @@
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="C44" t="s">
+        <v>133</v>
       </c>
       <c r="D44">
         <v>15</v>
@@ -2267,8 +2521,8 @@
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45">
-        <v>3</v>
+      <c r="C45" t="s">
+        <v>137</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -2287,8 +2541,8 @@
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="C46" t="s">
+        <v>141</v>
       </c>
       <c r="D46">
         <v>15</v>
@@ -2307,8 +2561,8 @@
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47">
-        <v>5</v>
+      <c r="C47" t="s">
+        <v>101</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -2327,8 +2581,8 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48">
-        <v>2</v>
+      <c r="C48" t="s">
+        <v>104</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -2347,8 +2601,8 @@
       <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="s">
+        <v>107</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -2367,8 +2621,8 @@
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50">
-        <v>2</v>
+      <c r="C50" t="s">
+        <v>110</v>
       </c>
       <c r="D50">
         <v>15</v>
@@ -2387,8 +2641,8 @@
       <c r="B51">
         <v>4</v>
       </c>
-      <c r="C51">
-        <v>3</v>
+      <c r="C51" t="s">
+        <v>113</v>
       </c>
       <c r="D51">
         <v>15</v>
@@ -2407,8 +2661,8 @@
       <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52">
-        <v>0</v>
+      <c r="C52" t="s">
+        <v>118</v>
       </c>
       <c r="D52">
         <v>15</v>
@@ -2427,8 +2681,8 @@
       <c r="B53">
         <v>6</v>
       </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="C53" t="s">
+        <v>121</v>
       </c>
       <c r="D53">
         <v>15</v>
@@ -2447,8 +2701,8 @@
       <c r="B54">
         <v>7</v>
       </c>
-      <c r="C54">
-        <v>0</v>
+      <c r="C54" t="s">
+        <v>124</v>
       </c>
       <c r="D54">
         <v>15</v>
@@ -2467,8 +2721,8 @@
       <c r="B55">
         <v>8</v>
       </c>
-      <c r="C55">
-        <v>5</v>
+      <c r="C55" t="s">
+        <v>127</v>
       </c>
       <c r="D55">
         <v>15</v>
@@ -2487,8 +2741,8 @@
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56">
-        <v>0</v>
+      <c r="C56" t="s">
+        <v>130</v>
       </c>
       <c r="D56">
         <v>15</v>
@@ -2507,8 +2761,8 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57">
-        <v>2</v>
+      <c r="C57" t="s">
+        <v>133</v>
       </c>
       <c r="D57">
         <v>15</v>
@@ -2527,8 +2781,8 @@
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="C58" t="s">
+        <v>137</v>
       </c>
       <c r="D58">
         <v>15</v>
@@ -2547,8 +2801,8 @@
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="C59">
-        <v>1</v>
+      <c r="C59" t="s">
+        <v>141</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -2567,8 +2821,8 @@
       <c r="B60">
         <v>4</v>
       </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="C60" t="s">
+        <v>124</v>
       </c>
       <c r="D60">
         <v>15</v>
@@ -2587,8 +2841,8 @@
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="C61" t="s">
+        <v>127</v>
       </c>
       <c r="D61">
         <v>15</v>
@@ -2607,8 +2861,8 @@
       <c r="B62">
         <v>6</v>
       </c>
-      <c r="C62">
-        <v>5</v>
+      <c r="C62" t="s">
+        <v>130</v>
       </c>
       <c r="D62">
         <v>15</v>
@@ -2627,8 +2881,8 @@
       <c r="B63">
         <v>7</v>
       </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="C63" t="s">
+        <v>133</v>
       </c>
       <c r="D63">
         <v>15</v>
@@ -2647,8 +2901,8 @@
       <c r="B64">
         <v>8</v>
       </c>
-      <c r="C64">
-        <v>3</v>
+      <c r="C64" t="s">
+        <v>137</v>
       </c>
       <c r="D64">
         <v>15</v>
@@ -2669,19 +2923,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="8" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2692,29 +2948,361 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
       <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/mudgame.xlsx
+++ b/mudgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="gminfos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="266">
   <si>
     <t>gm_qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,30 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slice79_79.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice62_62.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice67_67.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice28_28.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice79_79.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice69_69.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconurl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,10 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slice69_69.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菌蒲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,6 +936,125 @@
   </si>
   <si>
     <t>可供牧养的昆虫，为它提供保护;蚜虫则负责产出蜜露一样的高级食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f02_122.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f19_19.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f33_33.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f22_22.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f06_06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workegg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solideregg.png</t>
+  </si>
+  <si>
+    <t>solideregg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice15wq.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f18_18.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f26_26.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>larva.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f07_07.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f06_06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f25_25.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f29_29.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice10_10.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门，返回大地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f10_10.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门，前往下一区域探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1503,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1544,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1593,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>191</v>
@@ -1622,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
         <v>191</v>
@@ -1651,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
         <v>191</v>
@@ -1680,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
         <v>191</v>
@@ -1709,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
         <v>191</v>
@@ -1738,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
         <v>191</v>
@@ -1767,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
         <v>191</v>
@@ -1796,7 +1887,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
         <v>191</v>
@@ -1825,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
         <v>191</v>
@@ -1854,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
         <v>191</v>
@@ -1883,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
         <v>191</v>
@@ -1912,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="G14" t="s">
         <v>191</v>
@@ -1941,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="G15" t="s">
         <v>191</v>
@@ -1970,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
         <v>191</v>
@@ -1987,7 +2078,7 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
         <v>161</v>
@@ -1999,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
         <v>191</v>
@@ -2028,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="G18" t="s">
         <v>191</v>
@@ -2057,7 +2148,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="G19" t="s">
         <v>191</v>
@@ -2086,7 +2177,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="G20" t="s">
         <v>191</v>
@@ -2115,7 +2206,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
         <v>191</v>
@@ -2129,28 +2220,28 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
         <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I22">
         <v>1000</v>
@@ -2167,7 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2191,10 +2282,10 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
         <v>63</v>
@@ -2206,10 +2297,10 @@
         <v>154</v>
       </c>
       <c r="I1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2223,7 +2314,7 @@
         <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
         <v>128</v>
@@ -2252,7 +2343,7 @@
         <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
         <v>129</v>
@@ -2281,7 +2372,7 @@
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
         <v>130</v>
@@ -2310,7 +2401,7 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
         <v>131</v>
@@ -2339,7 +2430,7 @@
         <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
         <v>132</v>
@@ -2368,7 +2459,7 @@
         <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
         <v>133</v>
@@ -2397,7 +2488,7 @@
         <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
         <v>134</v>
@@ -2426,7 +2517,7 @@
         <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
         <v>135</v>
@@ -2455,7 +2546,7 @@
         <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
         <v>136</v>
@@ -2484,7 +2575,7 @@
         <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
         <v>137</v>
@@ -2513,7 +2604,7 @@
         <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
         <v>138</v>
@@ -2539,19 +2630,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="61.75" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="61.75" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -2565,16 +2656,16 @@
         <v>164</v>
       </c>
       <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2588,21 +2679,21 @@
         <v>165</v>
       </c>
       <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -2611,21 +2702,21 @@
         <v>166</v>
       </c>
       <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -2634,16 +2725,16 @@
         <v>167</v>
       </c>
       <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2657,16 +2748,16 @@
         <v>168</v>
       </c>
       <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2680,85 +2771,131 @@
         <v>169</v>
       </c>
       <c r="D6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
         <v>232</v>
       </c>
-      <c r="B7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" t="s">
-        <v>239</v>
-      </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
-        <v>198</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2942,7 @@
         <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2831,7 +2968,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2857,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2883,7 +3020,7 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2896,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2930,21 +3067,21 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2959,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -2973,7 +3110,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
@@ -2991,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -3023,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -3055,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -3133,7 +3270,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
         <v>161</v>
@@ -3165,7 +3302,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>161</v>
@@ -3293,7 +3430,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B13" t="s">
         <v>161</v>
@@ -3343,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -3375,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -3407,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -3439,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -3471,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -3503,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -3535,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -3567,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -3599,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -3677,7 +3814,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
         <v>161</v>
@@ -3709,7 +3846,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
         <v>161</v>
@@ -3759,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -3791,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -3823,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -3855,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -3887,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -3919,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -3951,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -3983,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -4015,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -4047,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -4079,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H37">
         <v>100</v>
@@ -4111,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -4143,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -4175,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H40">
         <v>100</v>
@@ -4207,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -4239,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H42">
         <v>100</v>
@@ -4271,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H43">
         <v>100</v>
@@ -4303,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -4335,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H45">
         <v>100</v>
@@ -4367,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -4399,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -4431,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -4463,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -4495,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -4527,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -4559,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H52">
         <v>100</v>
@@ -4591,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -4623,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -4655,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -4687,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H56">
         <v>100</v>
@@ -4719,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H57">
         <v>100</v>
@@ -4751,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -4765,7 +4902,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
         <v>165</v>
@@ -4783,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -4815,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -4829,7 +4966,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
         <v>165</v>
@@ -4847,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -4861,7 +4998,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B62" t="s">
         <v>165</v>
@@ -4879,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H62">
         <v>100</v>
@@ -4911,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -4943,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H64">
         <v>100</v>
@@ -4975,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -5007,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -5039,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H67">
         <v>100</v>
@@ -5071,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H68">
         <v>100</v>
@@ -5103,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H69">
         <v>100</v>
@@ -5135,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -5149,10 +5286,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -5167,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H71">
         <v>100</v>
@@ -5199,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H72">
         <v>100</v>
@@ -5231,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H73">
         <v>100</v>
@@ -5263,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H74">
         <v>100</v>
@@ -5295,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H75">
         <v>100</v>
@@ -5327,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -5359,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H77">
         <v>100</v>
@@ -5391,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H78">
         <v>100</v>
@@ -5423,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H79">
         <v>100</v>
@@ -5455,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H80">
         <v>100</v>
@@ -5487,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H81">
         <v>100</v>
@@ -5519,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H82">
         <v>100</v>
@@ -5551,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H83">
         <v>100</v>
@@ -5583,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H84">
         <v>100</v>
@@ -5615,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H85">
         <v>100</v>
@@ -5647,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H86">
         <v>100</v>
@@ -5679,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H87">
         <v>100</v>
@@ -5711,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H88">
         <v>100</v>
@@ -5743,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H89">
         <v>100</v>
